--- a/src/main/resources/题目模板.xlsx
+++ b/src/main/resources/题目模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296A6BA-6640-4932-88D3-89E1AF77006F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C4712-2379-4C0D-8A7A-C57B9E6348B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="1065" windowWidth="22785" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
   <si>
     <t>题目标题</t>
   </si>
@@ -64,18 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A.王安石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B.李白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C.李荣浩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D.陈恩如</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +85,126 @@
   </si>
   <si>
     <t>随便解析。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能原理</t>
+  </si>
+  <si>
+    <t>计算机组成原理</t>
+  </si>
+  <si>
+    <t>Java语言程序设计</t>
+  </si>
+  <si>
+    <t>软件测试</t>
+  </si>
+  <si>
+    <t>计算机网络</t>
+  </si>
+  <si>
+    <t>线性代数</t>
+  </si>
+  <si>
+    <t>数据结构与算法</t>
+  </si>
+  <si>
+    <t>数据库概论</t>
+  </si>
+  <si>
+    <t>神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoRunner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由转发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求有女朋友的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树与图的爱情故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中大奖的概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论删库到跑路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单项选择题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多项选择题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问答题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是题目内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你问我答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你答我猜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁是唐伯虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你情我愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机智如我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型男现场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王安石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李荣浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈恩如</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,54 +622,396 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/题目模板.xlsx
+++ b/src/main/resources/题目模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C4712-2379-4C0D-8A7A-C57B9E6348B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A4A767-04C7-4BD7-96B1-5B11A76F91E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="1065" windowWidth="22785" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="1545" windowWidth="22785" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
   <si>
     <t>题目标题</t>
   </si>
@@ -56,22 +56,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>唐宋八大家之一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D.陈恩如</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题目分值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +193,34 @@
   </si>
   <si>
     <t>陈恩如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DaC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1212121挂号费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复古风活生生的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +607,13 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -622,48 +641,48 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -674,34 +693,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>20</v>
@@ -712,34 +731,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -750,34 +769,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -788,34 +807,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>25</v>
@@ -826,34 +845,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -864,34 +883,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>15</v>
@@ -902,34 +921,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -940,37 +959,37 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -981,37 +1000,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
